--- a/AutomationFramework/src/main/java/selenium/automationFramework/dataDrivenTest/4-ExcelData.xlsx
+++ b/AutomationFramework/src/main/java/selenium/automationFramework/dataDrivenTest/4-ExcelData.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D120CBED-678B-4F29-8758-28D51C9AB6E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="26200" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="5190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTests" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:P15"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -151,6 +153,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -442,22 +447,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -469,7 +474,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
@@ -478,7 +483,7 @@
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
@@ -486,23 +491,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -515,14 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -534,12 +539,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
